--- a/Assets/06.Table/TowerTable5.xlsx
+++ b/Assets/06.Table/TowerTable5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79E6CF6-2056-4869-B009-F376E0ABA141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F6B223-D7ED-46FC-AFDB-77D20163C497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable5" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="12">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -706,7 +706,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -714,11 +714,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -871,7 +871,7 @@
         <v>2400</v>
       </c>
       <c r="K4" s="4">
-        <f t="shared" ref="K4:K41" si="1">K3*5</f>
+        <f t="shared" ref="K4:K51" si="1">K3*5</f>
         <v>1.7743688652346925E+64</v>
       </c>
     </row>
@@ -2113,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="4">
-        <f t="shared" ref="F38:F41" si="3">F37*2</f>
+        <f t="shared" ref="F38:F48" si="3">F37*2</f>
         <v>4.1875343577999448E+85</v>
       </c>
       <c r="G38" s="3">
@@ -2244,9 +2244,379 @@
         <v>1.2910232655374367E+90</v>
       </c>
     </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="1">
+        <v>43</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1</v>
+      </c>
+      <c r="F42" s="4">
+        <f t="shared" si="3"/>
+        <v>6.7000549724799116E+86</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H42" s="3">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K42" s="4">
+        <f t="shared" si="1"/>
+        <v>6.4551163276871835E+90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="1">
+        <v>43</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1</v>
+      </c>
+      <c r="F43" s="4">
+        <f t="shared" si="3"/>
+        <v>1.3400109944959823E+87</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H43" s="3">
+        <v>8</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>4860</v>
+      </c>
+      <c r="K43" s="4">
+        <f t="shared" si="1"/>
+        <v>3.2275581638435918E+91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="1">
+        <v>43</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1</v>
+      </c>
+      <c r="F44" s="4">
+        <f t="shared" si="3"/>
+        <v>2.6800219889919647E+87</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H44" s="3">
+        <v>8</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>4920</v>
+      </c>
+      <c r="K44" s="4">
+        <f t="shared" si="1"/>
+        <v>1.6137790819217958E+92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="1">
+        <v>43</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1</v>
+      </c>
+      <c r="F45" s="4">
+        <f t="shared" si="3"/>
+        <v>5.3600439779839293E+87</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H45" s="3">
+        <v>8</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>4980</v>
+      </c>
+      <c r="K45" s="4">
+        <f t="shared" si="1"/>
+        <v>8.0688954096089798E+92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="1">
+        <v>43</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1</v>
+      </c>
+      <c r="F46" s="4">
+        <f t="shared" si="3"/>
+        <v>1.0720087955967859E+88</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H46" s="3">
+        <v>8</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>5040</v>
+      </c>
+      <c r="K46" s="4">
+        <f t="shared" si="1"/>
+        <v>4.0344477048044897E+93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="1">
+        <v>43</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1</v>
+      </c>
+      <c r="F47" s="4">
+        <f t="shared" si="3"/>
+        <v>2.1440175911935717E+88</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H47" s="3">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K47" s="4">
+        <f t="shared" si="1"/>
+        <v>2.017223852402245E+94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="1">
+        <v>43</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1</v>
+      </c>
+      <c r="F48" s="4">
+        <f t="shared" si="3"/>
+        <v>4.2880351823871435E+88</v>
+      </c>
+      <c r="G48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H48" s="3">
+        <v>8</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>5160</v>
+      </c>
+      <c r="K48" s="4">
+        <f t="shared" si="1"/>
+        <v>1.0086119262011225E+95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="1">
+        <v>43</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1</v>
+      </c>
+      <c r="F49" s="4">
+        <f>F48*2</f>
+        <v>8.5760703647742869E+88</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H49" s="3">
+        <v>8</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>5220</v>
+      </c>
+      <c r="K49" s="4">
+        <f t="shared" si="1"/>
+        <v>5.0430596310056125E+95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="1">
+        <v>43</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E50" s="3">
+        <v>1</v>
+      </c>
+      <c r="F50" s="4">
+        <f>F49*2</f>
+        <v>1.7152140729548574E+89</v>
+      </c>
+      <c r="G50" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H50" s="3">
+        <v>8</v>
+      </c>
+      <c r="I50" s="3">
+        <v>0</v>
+      </c>
+      <c r="J50" s="3">
+        <v>5280</v>
+      </c>
+      <c r="K50" s="4">
+        <f t="shared" si="1"/>
+        <v>2.5215298155028063E+96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="1">
+        <v>43</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E51" s="3">
+        <v>1</v>
+      </c>
+      <c r="F51" s="4">
+        <f>F50*2</f>
+        <v>3.4304281459097148E+89</v>
+      </c>
+      <c r="G51" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H51" s="3">
+        <v>8</v>
+      </c>
+      <c r="I51" s="3">
+        <v>0</v>
+      </c>
+      <c r="J51" s="3">
+        <v>5340</v>
+      </c>
+      <c r="K51" s="4">
+        <f t="shared" si="1"/>
+        <v>1.2607649077514031E+97</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E2:E8 G2:J8 A2:D41">
+  <conditionalFormatting sqref="E2:E8 G2:J8 A2:D51">
     <cfRule type="expression" dxfId="9" priority="67">
       <formula>$C2=5</formula>
     </cfRule>
@@ -2266,12 +2636,12 @@
       <formula>$C12=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17:J18 G21:J22 G25:J26 G29:J30 E29:E30 E25:E26 E21:E22 E17:E18 E13:E14 E32:E33 G32:J33 G13:J14 G35:J37 E35:E37 E39:E40 G39:J40">
+  <conditionalFormatting sqref="G17:J18 G21:J22 G25:J26 G29:J30 E29:E30 E25:E26 E21:E22 E17:E18 E13:E14 E32:E33 G32:J33 G13:J14 G35:J37 E35:E37 E39:E40 G39:J40 E42 E44 E46 E48 E50 G42:J42 G44:J44 G46:J46 G48:J48 G50:J50">
     <cfRule type="expression" dxfId="5" priority="11">
       <formula>$C13=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19:J19 G23:J23 G27:J27 G31:J31 E31 E27 E23 E19 E15 E34 G34:J34 G15:J15 G38:J38 E38 E41 G41:J41">
+  <conditionalFormatting sqref="G19:J19 G23:J23 G27:J27 G31:J31 E31 E27 E23 E19 E15 E34 G34:J34 G15:J15 G38:J38 E38 E41 G41:J41 E43 E45 E47 E49 E51 G43:J43 G45:J45 G47:J47 G49:J49 G51:J51">
     <cfRule type="expression" dxfId="4" priority="10">
       <formula>$C15=5</formula>
     </cfRule>
@@ -2286,12 +2656,12 @@
       <formula>$C31=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F41">
+  <conditionalFormatting sqref="F2:F51">
     <cfRule type="expression" dxfId="1" priority="3">
       <formula>$C2=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K41">
+  <conditionalFormatting sqref="K2:K51">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C2=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable5.xlsx
+++ b/Assets/06.Table/TowerTable5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F6B223-D7ED-46FC-AFDB-77D20163C497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4006EB77-5AC6-4E21-81C6-4BB24FEA8974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable5" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="12">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -706,7 +706,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -714,11 +714,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
+      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -797,9 +797,7 @@
       <c r="J2" s="1">
         <v>2000</v>
       </c>
-      <c r="K2" s="4">
-        <v>7.0974754609387704E+62</v>
-      </c>
+      <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -833,10 +831,7 @@
       <c r="J3" s="1">
         <v>2200</v>
       </c>
-      <c r="K3" s="4">
-        <f>K2*5</f>
-        <v>3.548737730469385E+63</v>
-      </c>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -870,10 +865,7 @@
       <c r="J4" s="1">
         <v>2400</v>
       </c>
-      <c r="K4" s="4">
-        <f t="shared" ref="K4:K51" si="1">K3*5</f>
-        <v>1.7743688652346925E+64</v>
-      </c>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -907,10 +899,7 @@
       <c r="J5" s="1">
         <v>2600</v>
       </c>
-      <c r="K5" s="4">
-        <f t="shared" si="1"/>
-        <v>8.8718443261734628E+64</v>
-      </c>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -944,10 +933,7 @@
       <c r="J6" s="1">
         <v>2800</v>
       </c>
-      <c r="K6" s="4">
-        <f t="shared" si="1"/>
-        <v>4.4359221630867312E+65</v>
-      </c>
+      <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -981,10 +967,7 @@
       <c r="J7" s="1">
         <v>3000</v>
       </c>
-      <c r="K7" s="4">
-        <f t="shared" si="1"/>
-        <v>2.2179610815433655E+66</v>
-      </c>
+      <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -1018,10 +1001,7 @@
       <c r="J8" s="1">
         <v>3200</v>
       </c>
-      <c r="K8" s="4">
-        <f t="shared" si="1"/>
-        <v>1.1089805407716827E+67</v>
-      </c>
+      <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -1055,10 +1035,7 @@
       <c r="J9" s="1">
         <v>3000</v>
       </c>
-      <c r="K9" s="4">
-        <f t="shared" si="1"/>
-        <v>5.5449027038584137E+67</v>
-      </c>
+      <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -1092,10 +1069,7 @@
       <c r="J10" s="1">
         <v>3200</v>
       </c>
-      <c r="K10" s="4">
-        <f t="shared" si="1"/>
-        <v>2.7724513519292068E+68</v>
-      </c>
+      <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -1129,10 +1103,7 @@
       <c r="J11" s="1">
         <v>3200</v>
       </c>
-      <c r="K11" s="4">
-        <f t="shared" si="1"/>
-        <v>1.3862256759646034E+69</v>
-      </c>
+      <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -1166,10 +1137,7 @@
       <c r="J12">
         <v>3200</v>
       </c>
-      <c r="K12" s="4">
-        <f t="shared" si="1"/>
-        <v>6.9311283798230174E+69</v>
-      </c>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -1203,10 +1171,7 @@
       <c r="J13">
         <v>3000</v>
       </c>
-      <c r="K13" s="4">
-        <f t="shared" si="1"/>
-        <v>3.4655641899115089E+70</v>
-      </c>
+      <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -1240,10 +1205,7 @@
       <c r="J14">
         <v>3200</v>
       </c>
-      <c r="K14" s="4">
-        <f t="shared" si="1"/>
-        <v>1.7327820949557543E+71</v>
-      </c>
+      <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -1277,10 +1239,7 @@
       <c r="J15">
         <v>3200</v>
       </c>
-      <c r="K15" s="4">
-        <f t="shared" si="1"/>
-        <v>8.6639104747787711E+71</v>
-      </c>
+      <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -1314,10 +1273,7 @@
       <c r="J16">
         <v>3200</v>
       </c>
-      <c r="K16" s="4">
-        <f t="shared" si="1"/>
-        <v>4.3319552373893857E+72</v>
-      </c>
+      <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
@@ -1351,10 +1307,7 @@
       <c r="J17">
         <v>3300</v>
       </c>
-      <c r="K17" s="4">
-        <f t="shared" si="1"/>
-        <v>2.1659776186946927E+73</v>
-      </c>
+      <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
@@ -1388,10 +1341,7 @@
       <c r="J18">
         <v>3360</v>
       </c>
-      <c r="K18" s="4">
-        <f t="shared" si="1"/>
-        <v>1.0829888093473464E+74</v>
-      </c>
+      <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
@@ -1425,10 +1375,7 @@
       <c r="J19">
         <v>3420</v>
       </c>
-      <c r="K19" s="4">
-        <f t="shared" si="1"/>
-        <v>5.4149440467367319E+74</v>
-      </c>
+      <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
@@ -1462,10 +1409,7 @@
       <c r="J20">
         <v>3480</v>
       </c>
-      <c r="K20" s="4">
-        <f t="shared" si="1"/>
-        <v>2.707472023368366E+75</v>
-      </c>
+      <c r="K20" s="4"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
@@ -1499,10 +1443,7 @@
       <c r="J21">
         <v>3540</v>
       </c>
-      <c r="K21" s="4">
-        <f t="shared" si="1"/>
-        <v>1.353736011684183E+76</v>
-      </c>
+      <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
@@ -1536,10 +1477,7 @@
       <c r="J22" s="1">
         <v>3600</v>
       </c>
-      <c r="K22" s="4">
-        <f t="shared" si="1"/>
-        <v>6.7686800584209151E+76</v>
-      </c>
+      <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
@@ -1558,7 +1496,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" ref="F23:F36" si="2">F22*1.5</f>
+        <f t="shared" ref="F23:F36" si="1">F22*1.5</f>
         <v>5.3791298029159012E+82</v>
       </c>
       <c r="G23" s="1">
@@ -1573,10 +1511,7 @@
       <c r="J23" s="1">
         <v>3660</v>
       </c>
-      <c r="K23" s="4">
-        <f t="shared" si="1"/>
-        <v>3.3843400292104574E+77</v>
-      </c>
+      <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
@@ -1595,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8.0686947043738515E+82</v>
       </c>
       <c r="G24" s="1">
@@ -1610,10 +1545,7 @@
       <c r="J24" s="1">
         <v>3720</v>
       </c>
-      <c r="K24" s="4">
-        <f t="shared" si="1"/>
-        <v>1.6921700146052287E+78</v>
-      </c>
+      <c r="K24" s="4"/>
     </row>
     <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
@@ -1632,7 +1564,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.2103042056560777E+83</v>
       </c>
       <c r="G25" s="1">
@@ -1647,10 +1579,7 @@
       <c r="J25" s="1">
         <v>3780</v>
       </c>
-      <c r="K25" s="4">
-        <f t="shared" si="1"/>
-        <v>8.4608500730261433E+78</v>
-      </c>
+      <c r="K25" s="4"/>
     </row>
     <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
@@ -1669,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.8154563084841166E+83</v>
       </c>
       <c r="G26" s="1">
@@ -1684,10 +1613,7 @@
       <c r="J26" s="1">
         <v>3840</v>
       </c>
-      <c r="K26" s="4">
-        <f t="shared" si="1"/>
-        <v>4.2304250365130718E+79</v>
-      </c>
+      <c r="K26" s="4"/>
     </row>
     <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
@@ -1706,7 +1632,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.7231844627261746E+83</v>
       </c>
       <c r="G27" s="1">
@@ -1721,10 +1647,7 @@
       <c r="J27" s="1">
         <v>3900</v>
       </c>
-      <c r="K27" s="4">
-        <f t="shared" si="1"/>
-        <v>2.115212518256536E+80</v>
-      </c>
+      <c r="K27" s="4"/>
     </row>
     <row r="28" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
@@ -1743,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.084776694089262E+83</v>
       </c>
       <c r="G28" s="1">
@@ -1758,10 +1681,7 @@
       <c r="J28" s="1">
         <v>3960</v>
       </c>
-      <c r="K28" s="4">
-        <f t="shared" si="1"/>
-        <v>1.0576062591282681E+81</v>
-      </c>
+      <c r="K28" s="4"/>
     </row>
     <row r="29" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
@@ -1780,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.1271650411338932E+83</v>
       </c>
       <c r="G29" s="3">
@@ -1795,10 +1715,7 @@
       <c r="J29" s="3">
         <v>4020</v>
       </c>
-      <c r="K29" s="4">
-        <f t="shared" si="1"/>
-        <v>5.2880312956413406E+81</v>
-      </c>
+      <c r="K29" s="4"/>
     </row>
     <row r="30" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
@@ -1817,7 +1734,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9.1907475617008398E+83</v>
       </c>
       <c r="G30" s="3">
@@ -1832,10 +1749,7 @@
       <c r="J30" s="3">
         <v>4080</v>
       </c>
-      <c r="K30" s="4">
-        <f t="shared" si="1"/>
-        <v>2.6440156478206704E+82</v>
-      </c>
+      <c r="K30" s="4"/>
     </row>
     <row r="31" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
@@ -1854,7 +1768,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.378612134255126E+84</v>
       </c>
       <c r="G31" s="3">
@@ -1869,10 +1783,7 @@
       <c r="J31" s="3">
         <v>4140</v>
       </c>
-      <c r="K31" s="4">
-        <f t="shared" si="1"/>
-        <v>1.3220078239103352E+83</v>
-      </c>
+      <c r="K31" s="4"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
@@ -1891,7 +1802,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.0679182013826889E+84</v>
       </c>
       <c r="G32" s="3">
@@ -1906,10 +1817,7 @@
       <c r="J32" s="3">
         <v>4200</v>
       </c>
-      <c r="K32" s="4">
-        <f t="shared" si="1"/>
-        <v>6.610039119551676E+83</v>
-      </c>
+      <c r="K32" s="4"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
@@ -1928,7 +1836,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.1018773020740333E+84</v>
       </c>
       <c r="G33" s="3">
@@ -1943,10 +1851,7 @@
       <c r="J33" s="3">
         <v>4260</v>
       </c>
-      <c r="K33" s="4">
-        <f t="shared" si="1"/>
-        <v>3.3050195597758378E+84</v>
-      </c>
+      <c r="K33" s="4"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
@@ -1965,7 +1870,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.6528159531110501E+84</v>
       </c>
       <c r="G34" s="3">
@@ -1980,10 +1885,7 @@
       <c r="J34" s="3">
         <v>4320</v>
       </c>
-      <c r="K34" s="4">
-        <f t="shared" si="1"/>
-        <v>1.6525097798879189E+85</v>
-      </c>
+      <c r="K34" s="4"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
@@ -2002,7 +1904,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.9792239296665752E+84</v>
       </c>
       <c r="G35" s="3">
@@ -2017,10 +1919,7 @@
       <c r="J35" s="3">
         <v>4380</v>
       </c>
-      <c r="K35" s="4">
-        <f t="shared" si="1"/>
-        <v>8.2625488994395944E+85</v>
-      </c>
+      <c r="K35" s="4"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
@@ -2039,7 +1938,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.0468835894499862E+85</v>
       </c>
       <c r="G36" s="3">
@@ -2054,10 +1953,7 @@
       <c r="J36" s="3">
         <v>4440</v>
       </c>
-      <c r="K36" s="4">
-        <f t="shared" si="1"/>
-        <v>4.1312744497197971E+86</v>
-      </c>
+      <c r="K36" s="4"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
@@ -2091,10 +1987,7 @@
       <c r="J37" s="3">
         <v>4500</v>
       </c>
-      <c r="K37" s="4">
-        <f t="shared" si="1"/>
-        <v>2.0656372248598985E+87</v>
-      </c>
+      <c r="K37" s="4"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
@@ -2113,7 +2006,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="4">
-        <f t="shared" ref="F38:F48" si="3">F37*2</f>
+        <f t="shared" ref="F38:F48" si="2">F37*2</f>
         <v>4.1875343577999448E+85</v>
       </c>
       <c r="G38" s="3">
@@ -2128,10 +2021,7 @@
       <c r="J38" s="3">
         <v>4560</v>
       </c>
-      <c r="K38" s="4">
-        <f t="shared" si="1"/>
-        <v>1.0328186124299493E+88</v>
-      </c>
+      <c r="K38" s="4"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
@@ -2150,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8.3750687155998896E+85</v>
       </c>
       <c r="G39" s="3">
@@ -2165,10 +2055,7 @@
       <c r="J39" s="3">
         <v>4620</v>
       </c>
-      <c r="K39" s="4">
-        <f t="shared" si="1"/>
-        <v>5.1640930621497461E+88</v>
-      </c>
+      <c r="K39" s="4"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
@@ -2187,7 +2074,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.6750137431199779E+86</v>
       </c>
       <c r="G40" s="3">
@@ -2202,10 +2089,7 @@
       <c r="J40" s="3">
         <v>4680</v>
       </c>
-      <c r="K40" s="4">
-        <f t="shared" si="1"/>
-        <v>2.5820465310748733E+89</v>
-      </c>
+      <c r="K40" s="4"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
@@ -2224,7 +2108,7 @@
         <v>1</v>
       </c>
       <c r="F41" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.3500274862399558E+86</v>
       </c>
       <c r="G41" s="3">
@@ -2239,10 +2123,7 @@
       <c r="J41" s="3">
         <v>4740</v>
       </c>
-      <c r="K41" s="4">
-        <f t="shared" si="1"/>
-        <v>1.2910232655374367E+90</v>
-      </c>
+      <c r="K41" s="4"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
@@ -2261,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.7000549724799116E+86</v>
       </c>
       <c r="G42" s="3">
@@ -2276,10 +2157,7 @@
       <c r="J42" s="3">
         <v>4800</v>
       </c>
-      <c r="K42" s="4">
-        <f t="shared" si="1"/>
-        <v>6.4551163276871835E+90</v>
-      </c>
+      <c r="K42" s="4"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
@@ -2298,7 +2176,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.3400109944959823E+87</v>
       </c>
       <c r="G43" s="3">
@@ -2313,10 +2191,7 @@
       <c r="J43" s="3">
         <v>4860</v>
       </c>
-      <c r="K43" s="4">
-        <f t="shared" si="1"/>
-        <v>3.2275581638435918E+91</v>
-      </c>
+      <c r="K43" s="4"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
@@ -2335,7 +2210,7 @@
         <v>1</v>
       </c>
       <c r="F44" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.6800219889919647E+87</v>
       </c>
       <c r="G44" s="3">
@@ -2350,10 +2225,7 @@
       <c r="J44" s="3">
         <v>4920</v>
       </c>
-      <c r="K44" s="4">
-        <f t="shared" si="1"/>
-        <v>1.6137790819217958E+92</v>
-      </c>
+      <c r="K44" s="4"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
@@ -2372,7 +2244,7 @@
         <v>1</v>
       </c>
       <c r="F45" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.3600439779839293E+87</v>
       </c>
       <c r="G45" s="3">
@@ -2387,10 +2259,7 @@
       <c r="J45" s="3">
         <v>4980</v>
       </c>
-      <c r="K45" s="4">
-        <f t="shared" si="1"/>
-        <v>8.0688954096089798E+92</v>
-      </c>
+      <c r="K45" s="4"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
@@ -2409,7 +2278,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0720087955967859E+88</v>
       </c>
       <c r="G46" s="3">
@@ -2424,10 +2293,7 @@
       <c r="J46" s="3">
         <v>5040</v>
       </c>
-      <c r="K46" s="4">
-        <f t="shared" si="1"/>
-        <v>4.0344477048044897E+93</v>
-      </c>
+      <c r="K46" s="4"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
@@ -2446,7 +2312,7 @@
         <v>1</v>
       </c>
       <c r="F47" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.1440175911935717E+88</v>
       </c>
       <c r="G47" s="3">
@@ -2461,10 +2327,7 @@
       <c r="J47" s="3">
         <v>5100</v>
       </c>
-      <c r="K47" s="4">
-        <f t="shared" si="1"/>
-        <v>2.017223852402245E+94</v>
-      </c>
+      <c r="K47" s="4"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
@@ -2483,7 +2346,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.2880351823871435E+88</v>
       </c>
       <c r="G48" s="3">
@@ -2498,10 +2361,7 @@
       <c r="J48" s="3">
         <v>5160</v>
       </c>
-      <c r="K48" s="4">
-        <f t="shared" si="1"/>
-        <v>1.0086119262011225E+95</v>
-      </c>
+      <c r="K48" s="4"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
@@ -2535,10 +2395,7 @@
       <c r="J49" s="3">
         <v>5220</v>
       </c>
-      <c r="K49" s="4">
-        <f t="shared" si="1"/>
-        <v>5.0430596310056125E+95</v>
-      </c>
+      <c r="K49" s="4"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
@@ -2572,10 +2429,7 @@
       <c r="J50" s="3">
         <v>5280</v>
       </c>
-      <c r="K50" s="4">
-        <f t="shared" si="1"/>
-        <v>2.5215298155028063E+96</v>
-      </c>
+      <c r="K50" s="4"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
@@ -2609,14 +2463,351 @@
       <c r="J51" s="3">
         <v>5340</v>
       </c>
-      <c r="K51" s="4">
-        <f t="shared" si="1"/>
-        <v>1.2607649077514031E+97</v>
-      </c>
+      <c r="K51" s="4"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="1">
+        <v>43</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1</v>
+      </c>
+      <c r="F52" s="4">
+        <f t="shared" ref="F52:F61" si="3">F51*2</f>
+        <v>6.8608562918194295E+89</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H52" s="3">
+        <v>8</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K52" s="4"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="1">
+        <v>43</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
+      <c r="E53" s="3">
+        <v>1</v>
+      </c>
+      <c r="F53" s="4">
+        <f t="shared" si="3"/>
+        <v>1.3721712583638859E+90</v>
+      </c>
+      <c r="G53" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H53" s="3">
+        <v>8</v>
+      </c>
+      <c r="I53" s="3">
+        <v>0</v>
+      </c>
+      <c r="J53" s="3">
+        <v>5460</v>
+      </c>
+      <c r="K53" s="4"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="1">
+        <v>43</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1</v>
+      </c>
+      <c r="F54" s="4">
+        <f t="shared" si="3"/>
+        <v>2.7443425167277718E+90</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H54" s="3">
+        <v>8</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
+        <v>5520</v>
+      </c>
+      <c r="K54" s="4"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="1">
+        <v>43</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1</v>
+      </c>
+      <c r="E55" s="3">
+        <v>1</v>
+      </c>
+      <c r="F55" s="4">
+        <f t="shared" si="3"/>
+        <v>5.4886850334555436E+90</v>
+      </c>
+      <c r="G55" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H55" s="3">
+        <v>8</v>
+      </c>
+      <c r="I55" s="3">
+        <v>0</v>
+      </c>
+      <c r="J55" s="3">
+        <v>5580</v>
+      </c>
+      <c r="K55" s="4"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="1">
+        <v>43</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
+      <c r="E56" s="3">
+        <v>1</v>
+      </c>
+      <c r="F56" s="4">
+        <f t="shared" si="3"/>
+        <v>1.0977370066911087E+91</v>
+      </c>
+      <c r="G56" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H56" s="3">
+        <v>8</v>
+      </c>
+      <c r="I56" s="3">
+        <v>0</v>
+      </c>
+      <c r="J56" s="3">
+        <v>5640</v>
+      </c>
+      <c r="K56" s="4"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="1">
+        <v>43</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1</v>
+      </c>
+      <c r="F57" s="4">
+        <f t="shared" si="3"/>
+        <v>2.1954740133822174E+91</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H57" s="3">
+        <v>8</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K57" s="4"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="1">
+        <v>43</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1</v>
+      </c>
+      <c r="F58" s="4">
+        <f t="shared" si="3"/>
+        <v>4.3909480267644349E+91</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H58" s="3">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>5760</v>
+      </c>
+      <c r="K58" s="4"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="1">
+        <v>43</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1</v>
+      </c>
+      <c r="F59" s="4">
+        <f t="shared" si="3"/>
+        <v>8.7818960535288698E+91</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H59" s="3">
+        <v>8</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>5820</v>
+      </c>
+      <c r="K59" s="4"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="1">
+        <v>43</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1</v>
+      </c>
+      <c r="F60" s="4">
+        <f t="shared" si="3"/>
+        <v>1.756379210705774E+92</v>
+      </c>
+      <c r="G60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H60" s="3">
+        <v>8</v>
+      </c>
+      <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
+        <v>5880</v>
+      </c>
+      <c r="K60" s="4"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="1">
+        <v>43</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1</v>
+      </c>
+      <c r="F61" s="4">
+        <f t="shared" si="3"/>
+        <v>3.5127584214115479E+92</v>
+      </c>
+      <c r="G61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H61" s="3">
+        <v>8</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <v>5940</v>
+      </c>
+      <c r="K61" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E2:E8 G2:J8 A2:D51">
+  <conditionalFormatting sqref="E2:E8 G2:J8 A2:D61">
     <cfRule type="expression" dxfId="9" priority="67">
       <formula>$C2=5</formula>
     </cfRule>
@@ -2636,12 +2827,12 @@
       <formula>$C12=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17:J18 G21:J22 G25:J26 G29:J30 E29:E30 E25:E26 E21:E22 E17:E18 E13:E14 E32:E33 G32:J33 G13:J14 G35:J37 E35:E37 E39:E40 G39:J40 E42 E44 E46 E48 E50 G42:J42 G44:J44 G46:J46 G48:J48 G50:J50">
+  <conditionalFormatting sqref="G17:J18 G21:J22 G25:J26 G29:J30 E29:E30 E25:E26 E21:E22 E17:E18 E13:E14 E32:E33 G32:J33 G13:J14 G35:J37 E35:E37 E39:E40 G39:J40 E42 E44 E46 E48 E50 G42:J42 G44:J44 G46:J46 G48:J48 G50:J50 E52 E54 E56 E58 E60 G52:J52 G54:J54 G56:J56 G58:J58 G60:J60">
     <cfRule type="expression" dxfId="5" priority="11">
       <formula>$C13=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19:J19 G23:J23 G27:J27 G31:J31 E31 E27 E23 E19 E15 E34 G34:J34 G15:J15 G38:J38 E38 E41 G41:J41 E43 E45 E47 E49 E51 G43:J43 G45:J45 G47:J47 G49:J49 G51:J51">
+  <conditionalFormatting sqref="G19:J19 G23:J23 G27:J27 G31:J31 E31 E27 E23 E19 E15 E34 G34:J34 G15:J15 G38:J38 E38 E41 G41:J41 E43 E45 E47 E49 E51 G43:J43 G45:J45 G47:J47 G49:J49 G51:J51 E53 E55 E57 E59 E61 G53:J53 G55:J55 G57:J57 G59:J59 G61:J61">
     <cfRule type="expression" dxfId="4" priority="10">
       <formula>$C15=5</formula>
     </cfRule>
@@ -2656,12 +2847,12 @@
       <formula>$C31=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F51">
+  <conditionalFormatting sqref="F2:F61">
     <cfRule type="expression" dxfId="1" priority="3">
       <formula>$C2=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K51">
+  <conditionalFormatting sqref="K2:K61">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C2=5</formula>
     </cfRule>
